--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPM.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>50.34045306615026</v>
+        <v>41.59528396220897</v>
       </c>
       <c r="C2">
-        <v>98.58457853273967</v>
+        <v>50.30575324618277</v>
       </c>
       <c r="D2">
-        <v>99.98328470564203</v>
+        <v>98.75011268317969</v>
       </c>
       <c r="E2">
-        <v>99.98231627875751</v>
+        <v>99.00091646870558</v>
       </c>
       <c r="F2">
-        <v>99.9407336218577</v>
+        <v>98.45669512320343</v>
       </c>
       <c r="G2">
-        <v>99.83403113662362</v>
+        <v>97.47332459209602</v>
       </c>
       <c r="H2">
-        <v>99.46491895127456</v>
+        <v>96.17691562397441</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>51.23107658758506</v>
+        <v>37.53297727120641</v>
       </c>
       <c r="C3">
-        <v>95.57788947685201</v>
+        <v>50.3563619084732</v>
       </c>
       <c r="D3">
-        <v>99.9797923886034</v>
+        <v>99.70492488693743</v>
       </c>
       <c r="E3">
-        <v>99.99450653106034</v>
+        <v>99.10033583658607</v>
       </c>
       <c r="F3">
-        <v>99.9674130792836</v>
+        <v>98.70730575517618</v>
       </c>
       <c r="G3">
-        <v>99.78518824453235</v>
+        <v>97.69881161670166</v>
       </c>
       <c r="H3">
-        <v>99.50000906223885</v>
+        <v>96.29163647640291</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>50.40409597625205</v>
+        <v>41.34724418994332</v>
       </c>
       <c r="C4">
-        <v>97.2648280372546</v>
+        <v>50.51563318690332</v>
       </c>
       <c r="D4">
-        <v>99.98122750524678</v>
+        <v>98.5950986662085</v>
       </c>
       <c r="E4">
-        <v>99.99256950198217</v>
+        <v>98.76124790183353</v>
       </c>
       <c r="F4">
-        <v>99.97992845438814</v>
+        <v>98.49453169309061</v>
       </c>
       <c r="G4">
-        <v>99.72706772236184</v>
+        <v>97.56225160802107</v>
       </c>
       <c r="H4">
-        <v>99.52473630834854</v>
+        <v>96.10649638695197</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>48.73436841247501</v>
+        <v>42.36680814045455</v>
       </c>
       <c r="C5">
-        <v>98.2569019865668</v>
+        <v>50.06775740033259</v>
       </c>
       <c r="D5">
-        <v>99.98511901912887</v>
+        <v>98.58365928125019</v>
       </c>
       <c r="E5">
-        <v>99.99281663257619</v>
+        <v>98.86678555203926</v>
       </c>
       <c r="F5">
-        <v>99.97178315347726</v>
+        <v>98.43880222383864</v>
       </c>
       <c r="G5">
-        <v>99.77862990015521</v>
+        <v>97.53384616161114</v>
       </c>
       <c r="H5">
-        <v>99.5252587189599</v>
+        <v>96.29565939507032</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>48.96213962410535</v>
+        <v>43.62511358165602</v>
       </c>
       <c r="C6">
-        <v>97.72217715812944</v>
+        <v>50.30878547958765</v>
       </c>
       <c r="D6">
-        <v>99.98225005806999</v>
+        <v>98.7945287793539</v>
       </c>
       <c r="E6">
-        <v>99.98275868483162</v>
+        <v>98.90840127624824</v>
       </c>
       <c r="F6">
-        <v>99.94834928586313</v>
+        <v>98.40678341834372</v>
       </c>
       <c r="G6">
-        <v>99.79832025239791</v>
+        <v>97.69090155514478</v>
       </c>
       <c r="H6">
-        <v>99.45766588630696</v>
+        <v>96.12524327902642</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>41.59528396220897</v>
@@ -456,15 +462,18 @@
         <v>98.45669512320343</v>
       </c>
       <c r="G2">
+        <v>98.03179212897243</v>
+      </c>
+      <c r="H2">
         <v>97.47332459209602</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>96.17691562397441</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>37.53297727120641</v>
@@ -482,15 +491,18 @@
         <v>98.70730575517618</v>
       </c>
       <c r="G3">
+        <v>98.12855343148618</v>
+      </c>
+      <c r="H3">
         <v>97.69881161670166</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>96.29163647640291</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>41.34724418994332</v>
@@ -508,15 +520,18 @@
         <v>98.49453169309061</v>
       </c>
       <c r="G4">
+        <v>98.00292031246215</v>
+      </c>
+      <c r="H4">
         <v>97.56225160802107</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>96.10649638695197</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>42.36680814045455</v>
@@ -534,15 +549,18 @@
         <v>98.43880222383864</v>
       </c>
       <c r="G5">
+        <v>98.07217701378747</v>
+      </c>
+      <c r="H5">
         <v>97.53384616161114</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>96.29565939507032</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>43.62511358165602</v>
@@ -560,9 +578,12 @@
         <v>98.40678341834372</v>
       </c>
       <c r="G6">
+        <v>98.04924168334375</v>
+      </c>
+      <c r="H6">
         <v>97.69090155514478</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>96.12524327902642</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_LSPM.xlsx
@@ -462,13 +462,13 @@
         <v>98.45669512320343</v>
       </c>
       <c r="G2">
-        <v>98.03179212897243</v>
+        <v>97.90318578020005</v>
       </c>
       <c r="H2">
-        <v>97.47332459209602</v>
+        <v>97.62862158860304</v>
       </c>
       <c r="I2">
-        <v>96.17691562397441</v>
+        <v>96.43863793986142</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,13 +491,13 @@
         <v>98.70730575517618</v>
       </c>
       <c r="G3">
-        <v>98.12855343148618</v>
+        <v>98.17988368673714</v>
       </c>
       <c r="H3">
-        <v>97.69881161670166</v>
+        <v>97.63424170044945</v>
       </c>
       <c r="I3">
-        <v>96.29163647640291</v>
+        <v>96.52950974918801</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -520,13 +520,13 @@
         <v>98.49453169309061</v>
       </c>
       <c r="G4">
-        <v>98.00292031246215</v>
+        <v>98.02710530101348</v>
       </c>
       <c r="H4">
-        <v>97.56225160802107</v>
+        <v>97.58046813653365</v>
       </c>
       <c r="I4">
-        <v>96.10649638695197</v>
+        <v>96.19771780083322</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -549,13 +549,13 @@
         <v>98.43880222383864</v>
       </c>
       <c r="G5">
-        <v>98.07217701378747</v>
+        <v>97.95539475453438</v>
       </c>
       <c r="H5">
-        <v>97.53384616161114</v>
+        <v>97.59099172472406</v>
       </c>
       <c r="I5">
-        <v>96.29565939507032</v>
+        <v>96.2343149660089</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,13 +578,13 @@
         <v>98.40678341834372</v>
       </c>
       <c r="G6">
-        <v>98.04924168334375</v>
+        <v>98.13222834774639</v>
       </c>
       <c r="H6">
-        <v>97.69090155514478</v>
+        <v>97.60101959686401</v>
       </c>
       <c r="I6">
-        <v>96.12524327902642</v>
+        <v>96.05793635543462</v>
       </c>
     </row>
   </sheetData>
